--- a/medicine/Médecine vétérinaire/Gabriel_Pérès/Gabriel_Pérès.xlsx
+++ b/medicine/Médecine vétérinaire/Gabriel_Pérès/Gabriel_Pérès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriel_P%C3%A9r%C3%A8s</t>
+          <t>Gabriel_Pérès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabriel Pérès, né Gabriel Jean Germain Eugène Pérès le 8 avril 1920 à Carbonne (Haute-Garonne) et mort le 8 mars 2004 à Toulon (Var)[1], est un docteur vétérinaire[2],[3], professeur de physiologie générale et comparée. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Pérès, né Gabriel Jean Germain Eugène Pérès le 8 avril 1920 à Carbonne (Haute-Garonne) et mort le 8 mars 2004 à Toulon (Var), est un docteur vétérinaire professeur de physiologie générale et comparée. 
 Il enseigne à l'université de Lyon, puis à l'université Claude-Bernard-Lyon-I. Il est directeur de l'Institut de biologie marine Michel-Pacha de Tamaris, à La Seyne-sur-Mer.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriel_P%C3%A9r%C3%A8s</t>
+          <t>Gabriel_Pérès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines familiales et jeunesse
-Gabriel Pérès est né le 6 avril 1920 à Carbonne (Haute-Garonne), non loin de Muret, au sud-ouest de Toulouse. Son père est vétérinaire : d'abord praticien, il entre dans l'administration fait carrière comme directeur des services vétérinaires, à Albi, puis à Valence, avant d'occuper à partir de 1940 les fonctions de directeur des services vétérinaires du Rhône ; en même temps, il se livra à des recherches de zootechnie et de pathologie.
-Études
-Le baccalauréat en poche, Gabriel Pérès devient en 1938, élève de l'École nationale vétérinaire de Lyon, tout en suivant certains enseignements de la Faculté de médecine et de la Faculté des sciences. La même année 1942 le voit licencié ès sciences, obtenir le certificat de microbiologie délivré par la Faculté de médecine de Lyon, et soutenir sa thèse de docteur vétérinaire devant la même Faculté, qui lui décerne à cette occasion une médaille d'argent. C'est à cette époque qu'il noua avec plusieurs de ses condisciples des liens d'étroite amitié, notamment avec Raymond Cœur, Jacques Euzéby et Michel Bertrand.[réf. nécessaire]
-Sa thèse de médecine vétérinaire, intitulée Recherches sur l'utilisation du chien pour la préparation des sérums précipitants[4], lui avait été inspirée par Armand Tapernoux, professeur de physique, chimie et toxicologie.
+          <t>Origines familiales et jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel Pérès est né le 6 avril 1920 à Carbonne (Haute-Garonne), non loin de Muret, au sud-ouest de Toulouse. Son père est vétérinaire : d'abord praticien, il entre dans l'administration fait carrière comme directeur des services vétérinaires, à Albi, puis à Valence, avant d'occuper à partir de 1940 les fonctions de directeur des services vétérinaires du Rhône ; en même temps, il se livra à des recherches de zootechnie et de pathologie.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabriel_P%C3%A9r%C3%A8s</t>
+          <t>Gabriel_Pérès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,20 +558,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baccalauréat en poche, Gabriel Pérès devient en 1938, élève de l'École nationale vétérinaire de Lyon, tout en suivant certains enseignements de la Faculté de médecine et de la Faculté des sciences. La même année 1942 le voit licencié ès sciences, obtenir le certificat de microbiologie délivré par la Faculté de médecine de Lyon, et soutenir sa thèse de docteur vétérinaire devant la même Faculté, qui lui décerne à cette occasion une médaille d'argent. C'est à cette époque qu'il noua avec plusieurs de ses condisciples des liens d'étroite amitié, notamment avec Raymond Cœur, Jacques Euzéby et Michel Bertrand.[réf. nécessaire]
+Sa thèse de médecine vétérinaire, intitulée Recherches sur l'utilisation du chien pour la préparation des sérums précipitants, lui avait été inspirée par Armand Tapernoux, professeur de physique, chimie et toxicologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gabriel_Pérès</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabriel_P%C3%A9r%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Débuts
-Le professeur Daniel Cordier lui propose un poste d'assistant en 1950. Gabriel Pérès est d'abord chargé des démonstrations effectuées sur l'animal, puis il devint chef des travaux pratiques en titre, en 1956.
-Recherches sur le métabolisme protidique
-Dès 1949, Gabriel Pérès commence au laboratoire de physiologie de la Faculté des sciences des recherches sur les modifications subies par les protéines sériques à la suite de diverses agressions, notamment les brûlures et le choc traumatique.
-Maître de conférences
-Nommé maître de conférences en 1959[3], à la suite du transfert à Grenoble de Georges Dessaux dans une chaire de physiologie nouvellement instituée à la Faculté des sciences, Gabriel Pérès entreprend l'étude des effets métaboliques exercés par une hormone surrénalienne qui a été isolée quelques années auparavant par Thaddeus Reichstein (1897-1996), et que l'on connaît encore assez mal, l'aldostérone. Par ailleurs, il initie une recherche sur les effets métaboliques de l'atocophéryl-quinone, un analogue structurel du tocophérol, ou vitamine E. 
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Débuts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le professeur Daniel Cordier lui propose un poste d'assistant en 1950. Gabriel Pérès est d'abord chargé des démonstrations effectuées sur l'animal, puis il devint chef des travaux pratiques en titre, en 1956.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gabriel_Pérès</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabriel_P%C3%A9r%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recherches sur le métabolisme protidique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1949, Gabriel Pérès commence au laboratoire de physiologie de la Faculté des sciences des recherches sur les modifications subies par les protéines sériques à la suite de diverses agressions, notamment les brûlures et le choc traumatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gabriel_Pérès</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabriel_P%C3%A9r%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maître de conférences</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nommé maître de conférences en 1959, à la suite du transfert à Grenoble de Georges Dessaux dans une chaire de physiologie nouvellement instituée à la Faculté des sciences, Gabriel Pérès entreprend l'étude des effets métaboliques exercés par une hormone surrénalienne qui a été isolée quelques années auparavant par Thaddeus Reichstein (1897-1996), et que l'on connaît encore assez mal, l'aldostérone. Par ailleurs, il initie une recherche sur les effets métaboliques de l'atocophéryl-quinone, un analogue structurel du tocophérol, ou vitamine E. 
 En 1984, Gabriel Pérès, tout en continuant d'assurer certains enseignements, en particulier sur les animaux marins, décide de se décharger des enseignements d'endocrinologie qu'il donnait à Lyon dans la maîtrise de physiologie. Il décide la même année de confier la direction de son laboratoire lyonnais à Georges Zwingelstein, devenu directeur de recherches au CNRS. Outre les tâches qu'il assume à Lyon, Gabriel Pérès s'occupe très activement depuis 1961 de la direction du Laboratoire maritime de Tamaris. Il décide de se consacrer désormais exclusivement à cette dernière fonction.
-Directeur de l'Institut Michel-Pacha
-Lorsqu'il devient titulaire de la chaire de physiologie comparée, Gabriel Pérès devient du même coup le directeur de ce que l'on nommait alors la Station maritime de Biologie de Tamaris[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gabriel_Pérès</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gabriel_P%C3%A9r%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Directeur de l'Institut Michel-Pacha</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'il devient titulaire de la chaire de physiologie comparée, Gabriel Pérès devient du même coup le directeur de ce que l'on nommait alors la Station maritime de Biologie de Tamaris.
 Sise dans la baie du Lazaret, en face de Toulon, un bâtiment de style mauresque abrite depuis 1900 le laboratoire maritime de physiologie construit pour une large part grâce au don généreux de Michel Pacha, qui, en 1890, offre à l'Université de Lyon, à la prière de Raphaël Dubois, le terrain et les matériaux nécessaires à la construction, sous la condition que le nouveau laboratoire maritime serait affecté aux recherches physiologiques et constituerait une annexe de la chaire de physiologie générale.
 Sitôt nommé, Gabriel Pérès, qui jusqu'alors avait été tenu à l'écart de Tamaris (il travaillait aux Terrasses pendant l'été), décide de redonner vie à la station, et de l'ouvrir désormais de façon permanente. 
 II y vient régulièrement lui-même et obtint de certains de ses collaborateurs qu'ils y fassent des séjours prolongés, jusqu'au moment où un universitaire réside en permanence au laboratoire (d'abord Maurice Buclon, puis Gérard Brichon), il y organise des stages d'étudiants, qui donnent naissance plus tard à des certificats spécialisés. Il y accueille des collègues français et étrangers, nouant avec plusieurs de ceux-ci de fructueuses collaborations (Ion Motelica, Robert Crane, Ernest Schoffeniels, Wanda Leyko...). 
